--- a/Valuation of an insurance policy_May 11.xlsx
+++ b/Valuation of an insurance policy_May 11.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\Git from Snowball\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD315EA-35AA-4068-8589-0965EAF8429C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B74774E-26E5-4107-A0D5-186655646114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="9" xr2:uid="{D2BD1ABA-D59C-A14B-B4BB-93378A3E5EF6}"/>
+    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" firstSheet="5" activeTab="9" xr2:uid="{D2BD1ABA-D59C-A14B-B4BB-93378A3E5EF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Example" sheetId="1" r:id="rId1"/>
@@ -398,7 +398,7 @@
     <numFmt numFmtId="164" formatCode="&quot;NPR&quot;\ #,##0.00;[Red]\-&quot;NPR&quot;\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -441,12 +441,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="15">
@@ -670,7 +664,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -737,8 +731,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2725,7 +2717,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2756,6 +2748,9 @@
       </c>
     </row>
     <row r="2" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>1</v>
+      </c>
       <c r="F2"/>
     </row>
     <row r="3" spans="2:28" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -3497,7 +3492,7 @@
         <f>IF(G4&gt;0,G6*(1+$C$22)^1,0)</f>
         <v>65382.560000000005</v>
       </c>
-      <c r="H12" s="63">
+      <c r="H12" s="16">
         <f>IF(H4&gt;0,(H6)*(1+$C$22)^3,0)</f>
         <v>77681.019536000007</v>
       </c>
@@ -3509,7 +3504,7 @@
         <f>IF(J4&gt;0,J6*(1+$C$22)^1,0)</f>
         <v>65382.560000000005</v>
       </c>
-      <c r="K12" s="63">
+      <c r="K12" s="16">
         <f>IF(K4&gt;0,(K6)*(1+$C$22)^3,0)</f>
         <v>77681.019536000007</v>
       </c>
@@ -3521,7 +3516,7 @@
         <f>IF(M4&gt;0,M6*(1+$C$22)^1,0)</f>
         <v>65382.560000000005</v>
       </c>
-      <c r="N12" s="63">
+      <c r="N12" s="16">
         <f>IF(N4&gt;0,(N6)*(1+$C$22)^3,0)</f>
         <v>81902.81407600001</v>
       </c>
@@ -3533,7 +3528,7 @@
         <f>IF(P4&gt;0,P6*(1+$C$22)^1,0)</f>
         <v>68935.960000000006</v>
       </c>
-      <c r="Q12" s="63">
+      <c r="Q12" s="16">
         <f>IF(Q4&gt;0,(Q6)*(1+$C$22)^3,0)</f>
         <v>81902.81407600001</v>
       </c>
@@ -3545,7 +3540,7 @@
         <f>IF(S4&gt;0,S6*(1+$C$22)^1,0)</f>
         <v>68935.960000000006</v>
       </c>
-      <c r="T12" s="63">
+      <c r="T12" s="16">
         <f>IF(T4&gt;0,(T6)*(1+$C$22)^3,0)</f>
         <v>81902.81407600001</v>
       </c>
@@ -3557,7 +3552,7 @@
         <f>IF(V4&gt;0,V6*(1+$C$22)^1,0)</f>
         <v>68935.960000000006</v>
       </c>
-      <c r="W12" s="63">
+      <c r="W12" s="16">
         <f>IF(W4&gt;0,(W6)*(1+$C$22)^3,0)</f>
         <v>81902.81407600001</v>
       </c>
@@ -3569,7 +3564,7 @@
         <f>IF(Y4&gt;0,Y6*(1+$C$22)^1,0)</f>
         <v>68935.960000000006</v>
       </c>
-      <c r="Z12" s="63">
+      <c r="Z12" s="16">
         <f>IF(Z4&gt;0,(Z6)*(1+$C$22)^3,0)</f>
         <v>81902.81407600001</v>
       </c>
@@ -3582,92 +3577,92 @@
         <v>68935.960000000006</v>
       </c>
     </row>
-    <row r="13" spans="2:28" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="62" t="s">
+    <row r="13" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63">
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16">
         <f>IF(AND(G5=1,G4&gt;0),SUM(D12:G12)-G10,0)</f>
         <v>143279.06195584004</v>
       </c>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63">
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16">
         <f>IF(AND(J5=1,J4&gt;0),SUM(H12:J12)-J10,0)</f>
         <v>89330.569936000014</v>
       </c>
-      <c r="K13" s="63">
+      <c r="K13" s="16">
         <f t="shared" ref="K13:AB13" si="6">IF(AND(K5=1,K4&gt;0),SUM(I12:K12)-K10,0)</f>
         <v>0</v>
       </c>
-      <c r="L13" s="63">
+      <c r="L13" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M13" s="63">
+      <c r="M13" s="16">
         <f t="shared" si="6"/>
         <v>89330.569936000014</v>
       </c>
-      <c r="N13" s="63">
+      <c r="N13" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O13" s="63">
+      <c r="O13" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P13" s="63">
+      <c r="P13" s="16">
         <f t="shared" si="6"/>
         <v>100978.97047600005</v>
       </c>
-      <c r="Q13" s="63">
+      <c r="Q13" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R13" s="63">
+      <c r="R13" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S13" s="63">
+      <c r="S13" s="16">
         <f t="shared" si="6"/>
         <v>100978.97047600005</v>
       </c>
-      <c r="T13" s="63">
+      <c r="T13" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U13" s="63">
+      <c r="U13" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V13" s="63">
+      <c r="V13" s="16">
         <f t="shared" si="6"/>
         <v>100978.97047600005</v>
       </c>
-      <c r="W13" s="63">
+      <c r="W13" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X13" s="63">
+      <c r="X13" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y13" s="63">
+      <c r="Y13" s="16">
         <f t="shared" si="6"/>
         <v>100978.97047600005</v>
       </c>
-      <c r="Z13" s="63">
+      <c r="Z13" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AA13" s="63">
+      <c r="AA13" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AB13" s="63">
+      <c r="AB13" s="16">
         <f t="shared" si="6"/>
         <v>225978.97047600005</v>
       </c>
@@ -3683,91 +3678,91 @@
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="63">
+      <c r="G14" s="16">
         <f>G13*(1+$C$22)^(G4-1)</f>
         <v>875264.24220850738</v>
       </c>
-      <c r="H14" s="63">
+      <c r="H14" s="16">
         <f t="shared" ref="H14:AB14" si="7">H13*(1+$C$22)^(H4-1)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="63">
+      <c r="I14" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J14" s="63">
+      <c r="J14" s="16">
         <f t="shared" si="7"/>
         <v>421383.05533296079</v>
       </c>
-      <c r="K14" s="63">
+      <c r="K14" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L14" s="63">
+      <c r="L14" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M14" s="63">
+      <c r="M14" s="16">
         <f t="shared" si="7"/>
         <v>325385.03410576965</v>
       </c>
-      <c r="N14" s="63">
+      <c r="N14" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O14" s="63">
+      <c r="O14" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P14" s="63">
+      <c r="P14" s="16">
         <f t="shared" si="7"/>
         <v>284019.99395854014</v>
       </c>
-      <c r="Q14" s="63">
+      <c r="Q14" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R14" s="63">
+      <c r="R14" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S14" s="63">
+      <c r="S14" s="16">
         <f t="shared" si="7"/>
         <v>219315.54734182797</v>
       </c>
-      <c r="T14" s="63">
+      <c r="T14" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U14" s="63">
+      <c r="U14" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="V14" s="63">
+      <c r="V14" s="16">
         <f t="shared" si="7"/>
         <v>169351.84257790982</v>
       </c>
-      <c r="W14" s="63">
+      <c r="W14" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X14" s="63">
+      <c r="X14" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y14" s="63">
+      <c r="Y14" s="16">
         <f t="shared" si="7"/>
         <v>130770.69515656389</v>
       </c>
-      <c r="Z14" s="63">
+      <c r="Z14" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA14" s="63">
+      <c r="AA14" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AB14" s="63">
+      <c r="AB14" s="16">
         <f t="shared" si="7"/>
         <v>225978.97047600005</v>
       </c>

--- a/Valuation of an insurance policy_May 11.xlsx
+++ b/Valuation of an insurance policy_May 11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\Git from Snowball\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B74774E-26E5-4107-A0D5-186655646114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C16C90-6520-4212-9E2A-12CFC258239F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" firstSheet="5" activeTab="9" xr2:uid="{D2BD1ABA-D59C-A14B-B4BB-93378A3E5EF6}"/>
   </bookViews>
@@ -2717,7 +2717,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2750,6 +2750,9 @@
     <row r="2" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C2">
         <v>1</v>
+      </c>
+      <c r="D2">
+        <v>111</v>
       </c>
       <c r="F2"/>
     </row>
